--- a/docs/LTA1_C/LTA1_C_15.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790219.9021394</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731790220.7730918</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790219.9021394.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790220.7730918.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.38</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.07</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790221.9718008</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790224.424235</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790221.9718008.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790224.424235.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.97</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790226.8750613</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790226.9427745</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790226.8750613.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790226.9427745.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>276.84</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.42</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5800000000000409</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790227.1152728</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790227.9132905</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790227.1152728.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790227.9132905.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.38</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.07</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790229.0512462</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731790231.0559115</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790229.0512462.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790231.0559115.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.97</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790232.7643383</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790232.814205</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790232.7643383.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790232.814205.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>276.84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5800000000000409</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790232.948418</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790234.0133507</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790232.948418.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790234.0133507.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>279.64</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2899999999999636</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -903,95 +961,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790235.5196388</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731790235.5196388.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731790235.5196388.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.83</v>
       </c>
-      <c r="J10" t="n">
-        <v>278.83</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>277.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790241.461081</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790242.1215918</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790241.461081.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790242.1215918.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.87</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.46</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5900000000000034</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790243.7397323</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731790243.7397323.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731790243.7397323.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.91</v>
       </c>
-      <c r="J12" t="n">
-        <v>128.91</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>127.34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.569999999999993</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790249.3410428</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790249.704917</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790249.3410428.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790249.704917.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6372.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6395</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>22.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790249.8124065</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731790250.0391984</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790249.8124065.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790250.0391984.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6406</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6383</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>23</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790252.255644</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790252.255644.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790252.255644.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6362</v>
       </c>
-      <c r="J15" t="n">
-        <v>6362</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6343.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790257.4871542</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790257.8725467</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790257.4871542.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790257.8725467.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>494.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>495.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.449999999999989</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790257.9864445</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790259.4623215</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790257.9864445.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790259.4623215.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>498</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>495.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790259.5780463</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731790259.8051224</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790259.5780463.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790259.8051224.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>494.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>496.15</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.599999999999966</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790261.901708</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731790263.905829</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790261.901708.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790263.905829.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>494.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>495.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.099999999999966</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790264.0829663</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790264.4550047</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790264.0829663.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790264.4550047.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>496.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>495.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1451,95 +1575,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790264.9368656</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731790264.9368656.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731790264.9368656.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>494.9</v>
       </c>
-      <c r="J21" t="n">
-        <v>494.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4000000000000341</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790265.3205462</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731790266.2231238</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790265.3205462.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790266.2231238.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>221.82</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>223.27</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.450000000000017</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790267.0362098</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790270.194542</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790267.0362098.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790270.194542.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>223.72</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>223.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790270.3645144</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790272.1973252</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790270.3645144.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790272.1973252.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>224.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>224.21</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790272.4045143</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790273.4761386</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790272.4045143.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790273.4761386.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1031.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1036.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790274.109295</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731790277.5066545</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790274.109295.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790277.5066545.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1037.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1755,51 +1915,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790277.699795</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731790279.3398144</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790277.699795.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790279.3398144.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1034.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1037.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1807,95 +1973,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790280.4710295</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731790280.4710295.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731790280.4710295.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J28" t="n">
-        <v>1032.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1032.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790281.2989588</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731790281.720475</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790281.2989588.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790281.720475.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.958</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.994</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.03599999999999959</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790283.848335</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790286.655068</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790283.848335.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790286.655068.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.021</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>12.024</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.002999999999998337</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1955,95 +2139,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790288.5837893</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731790288.5837893.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731790288.5837893.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>12.031</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.031</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>12.052</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02099999999999902</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790290.131391</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731790290.5997734</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790290.131391.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790290.5997734.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.24</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>125.86</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790290.614734</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790292.1648314</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790290.614734.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790292.1648314.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.86</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.28</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790294.8800337</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790294.8800337.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790294.8800337.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.2</v>
       </c>
-      <c r="J34" t="n">
-        <v>125.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790298.5884602</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731790298.7226603</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790298.5884602.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790298.7226603.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>162.3</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>162.98</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.6799999999999784</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790298.831165</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731790300.2777007</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790298.831165.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790300.2777007.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>163.48</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>163.54</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2251,95 +2471,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790302.7644358</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790302.7644358.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790302.7644358.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>163.3</v>
       </c>
-      <c r="J37" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>161.8</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790305.843984</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731790306.50372</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790305.843984.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790306.50372.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>49.565</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>49.845</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2347,51 +2579,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790306.6320493</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731790307.784014</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790306.6320493.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790307.784014.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>49.99</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>49.805</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1850000000000023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2399,51 +2637,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790308.8734894</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790310.1583052</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790308.8734894.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790310.1583052.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49.875</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2749999999999986</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2451,95 +2695,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790311.5990472</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790311.5990472.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790311.5990472.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.97</v>
       </c>
-      <c r="J41" t="n">
-        <v>49.97</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>49.96</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790313.8490036</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731790314.4654646</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790313.8490036.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790314.4654646.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1387.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1392.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2547,51 +2803,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790314.493389</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790314.7624147</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790314.493389.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790314.7624147.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1395</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1395</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2599,95 +2861,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790321.1482036</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731790321.1482036.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731790321.1482036.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1391.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>1391.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1386.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790322.4589193</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731790324.0788755</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790322.4589193.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790324.0788755.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>58.83</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>58.78</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2695,51 +2969,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790324.2995312</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731790326.3228264</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790324.2995312.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790326.3228264.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>58.67</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>58.82</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2747,51 +3027,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790326.6679752</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790329.308402</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790326.6679752.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790329.308402.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>58.94</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>58.87</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2799,95 +3085,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790329.666813</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731790329.666813.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731790329.666813.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.01</v>
       </c>
-      <c r="J48" t="n">
-        <v>59.01</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790330.6088157</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731790331.8541777</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790330.6088157.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790331.8541777.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>99.53</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>99.78</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.25</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2895,51 +3193,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790332.1795297</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731790332.7008553</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790332.1795297.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790332.7008553.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>100.31</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>99.64</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.6700000000000017</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -2947,51 +3251,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790335.079993</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790337.4019349</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790335.079993.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790337.4019349.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>99.20999999999999</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>99.5</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2900000000000063</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2999,95 +3309,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790338.7666264</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731790338.7666264.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731790338.7666264.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>55.77</v>
       </c>
-      <c r="J52" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>55.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790345.9646626</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731790346.270778</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790345.9646626.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790346.270778.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>154.7</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>156.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -3095,95 +3417,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790348.8056912</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731790348.8056912.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731790348.8056912.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>154.98</v>
       </c>
-      <c r="J54" t="n">
-        <v>154.98</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>154.12</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790354.0633836</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790355.7383652</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790354.0633836.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790355.7383652.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.3055</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.3032</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.002299999999999969</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3191,95 +3525,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790358.8559468</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790358.8559468.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790358.8559468.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.3064</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.3064</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>0.3061</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0003000000000000225</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790360.0344625</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790362.5164714</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790360.0344625.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790362.5164714.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>19.97</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>20.067</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.09700000000000131</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -3287,51 +3633,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790363.6452224</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731790368.5494428</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790363.6452224.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790368.5494428.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.921</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.933</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3339,95 +3691,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790368.9556153</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731790368.9556153.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731790368.9556153.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.849</v>
       </c>
-      <c r="J59" t="n">
-        <v>19.849</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>19.826</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.02299999999999969</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790370.070496</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731790370.1499639</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790370.070496.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790370.1499639.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>679.9</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>682.5</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3435,51 +3799,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790370.5238776</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731790370.8448977</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790370.5238776.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790370.8448977.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>679.6</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>682.45</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3487,51 +3857,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790372.132225</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731790372.359534</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790372.132225.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790372.359534.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>679.85</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>680.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.75</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3539,51 +3915,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790372.8651474</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731790375.7052937</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790372.8651474.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790375.7052937.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>677.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>679.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3591,95 +3973,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790375.901913</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731790375.901913.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731790375.901913.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>680.2</v>
       </c>
-      <c r="J64" t="n">
-        <v>680.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>679.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.9000000000000909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790376.7087643</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731790377.5997748</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790376.7087643.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790377.5997748.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>150.99</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>152.2</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.20999999999998</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -3687,51 +4081,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790380.4899054</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731790383.7223563</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790380.4899054.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790383.7223563.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>150.57</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>151.16</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.5900000000000034</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3739,44 +4139,50 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790384.1709862</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790384.1709862.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790384.1709862.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>150.5</v>
       </c>
-      <c r="J67" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>150.7</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -3837,19 +4243,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.14999999999992</v>
+        <v>7.549999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.191666666666653</v>
+        <v>1.258333333333326</v>
       </c>
       <c r="E2" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -3859,19 +4265,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.800000000000068</v>
+        <v>8.700000000000159</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.560000000000014</v>
+        <v>1.740000000000032</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -3881,19 +4287,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.430000000000007</v>
+        <v>-0.06999999999999318</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2860000000000014</v>
+        <v>-0.01399999999999864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.51</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5">
@@ -3903,16 +4309,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.269999999999996</v>
+        <v>0.279999999999994</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06749999999999901</v>
+        <v>0.06999999999999851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F5" t="n">
         <v>0.12</v>
@@ -3925,16 +4331,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.740000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1850000000000005</v>
+        <v>0.1875</v>
       </c>
       <c r="E6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.37</v>
@@ -3947,19 +4353,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.60000000000014</v>
+        <v>11.40000000000032</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2.900000000000034</v>
+        <v>2.85000000000008</v>
       </c>
       <c r="E7" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F7" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -3969,19 +4375,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1090000000000018</v>
+        <v>0.08600000000000207</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03633333333333392</v>
+        <v>0.02866666666666736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -4035,19 +4441,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6199999999999761</v>
+        <v>-0.8800000000000239</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2066666666666587</v>
+        <v>-0.2933333333333413</v>
       </c>
       <c r="E11" t="n">
-        <v>0.38</v>
+        <v>-0.5399999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="12">
@@ -4057,19 +4463,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.799999999999983</v>
+        <v>1.999999999999972</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.6666666666666572</v>
       </c>
       <c r="E12" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
@@ -4101,19 +4507,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.5</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>15.16666666666667</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15">
@@ -4123,19 +4529,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.400000000000001</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.96</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
@@ -4145,19 +4551,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03300000000000125</v>
+        <v>0.05400000000000027</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01100000000000042</v>
+        <v>0.01800000000000009</v>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -4167,19 +4573,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.600000000000136</v>
+        <v>-0.3999999999998636</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.533333333333379</v>
+        <v>-0.1333333333332879</v>
       </c>
       <c r="E17" t="n">
-        <v>0.33</v>
+        <v>-0.02999999999999997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18">
@@ -4189,19 +4595,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.002599999999999991</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.001299999999999996</v>
       </c>
       <c r="E18" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F18" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
@@ -4211,19 +4617,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5900000000000034</v>
+        <v>-0.9799999999999898</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2950000000000017</v>
+        <v>-0.4899999999999949</v>
       </c>
       <c r="E19" t="n">
-        <v>0.46</v>
+        <v>-0.76</v>
       </c>
       <c r="F19" t="n">
-        <v>0.23</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="20">
@@ -4233,19 +4639,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1.140000000000015</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.5700000000000074</v>
       </c>
       <c r="E20" t="n">
-        <v>1.29</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
@@ -4255,19 +4661,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.3700000000000045</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.3700000000000045</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="22">
